--- a/biology/Botanique/Jean-Joseph_De_Cloet/Jean-Joseph_De_Cloet.xlsx
+++ b/biology/Botanique/Jean-Joseph_De_Cloet/Jean-Joseph_De_Cloet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Joseph De Cloet, né à Bruges le 4 mai 1790 et mort à Freÿr le 21 février 1855, est un écrivain, botaniste et enseignant belge.
 </t>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean De Cloet est né à Bruges[1].
-Séminariste à Gand, il est incorporé dans les armées de Napoléon, où il sert dans un régiment d'artillerie. Il participe notamment au siège de Wesel[1].
-Après la chute de Napoléon, il retourne au séminaire, puis devient professeur au collège Saint-Joseph d'Alost[1].
-Après avoir renoncé à l'état ecclésiastique, il devint précepteur du fils du duc de Beaufort, et visite l'Europe en compagnie de son élève. À la mort de ce dernier, le duc de Beaufort fait de Jean De Cloet l'administrateur de son domaine de Freÿr[1].
-Sous le royaume uni des Pays-Bas, il a contribué à des journaux qui critiquaient le gouvernement néerlandais : Le Spectateur Belge (nl), L'Ami du Roi et de la Patrie et Le Cultivateur[1].
-Il est surtout connu pour son ouvrage Voyage pittoresque dans le royaume des Pays-Bas, en deux volumes, illustré de gravures d'après Madou[1].
-Il meurt au domaine de Freÿr le 21 février 1855[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean De Cloet est né à Bruges.
+Séminariste à Gand, il est incorporé dans les armées de Napoléon, où il sert dans un régiment d'artillerie. Il participe notamment au siège de Wesel.
+Après la chute de Napoléon, il retourne au séminaire, puis devient professeur au collège Saint-Joseph d'Alost.
+Après avoir renoncé à l'état ecclésiastique, il devint précepteur du fils du duc de Beaufort, et visite l'Europe en compagnie de son élève. À la mort de ce dernier, le duc de Beaufort fait de Jean De Cloet l'administrateur de son domaine de Freÿr.
+Sous le royaume uni des Pays-Bas, il a contribué à des journaux qui critiquaient le gouvernement néerlandais : Le Spectateur Belge (nl), L'Ami du Roi et de la Patrie et Le Cultivateur.
+Il est surtout connu pour son ouvrage Voyage pittoresque dans le royaume des Pays-Bas, en deux volumes, illustré de gravures d'après Madou.
+Il meurt au domaine de Freÿr le 21 février 1855.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Tableau général ou analyse succincte de la rhétorique, 1819.
 Essai sur les langues françaises et hollandaises, 1820 &amp; 1842.
